--- a/rules/Reporting Requirements and Rules.xlsx
+++ b/rules/Reporting Requirements and Rules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\reporting\.ph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\reporting\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7AA54C-CC00-4408-9D95-2D6796DA3ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD53439-F4FC-45EE-B51E-B0413093A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="262">
   <si>
     <t>ID</t>
   </si>
@@ -548,135 +548,12 @@
     <t>The Reporting Period must be provided in the Report</t>
   </si>
   <si>
-    <t>The Report must contain an identification of the specification it conforms to.</t>
-  </si>
-  <si>
-    <t>The Report must contain an identification of the business process context it appears in.</t>
-  </si>
-  <si>
-    <t>The Report must uniquely identify the reporting Service Provider.</t>
-  </si>
-  <si>
-    <t>Each country code reported, must be specified following the ISO-3166-1 Alpha2 code list.</t>
-  </si>
-  <si>
-    <t>The Report must contain the year and the month in which the reported data was gathered.</t>
-  </si>
-  <si>
-    <t>The Report must contain the legal identifier of every reported Intermediary of any End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain the legal name of every reported Intermediary of any End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain the country code of every reported Intermediary of any End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain the details of no, one or multiple End Users.</t>
-  </si>
-  <si>
-    <t>The Report must contain the legal identifier of every reported End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain the legal name of every reported End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain the country code of every reported End User.</t>
-  </si>
-  <si>
-    <t>The Report must contain an enumeration of all Dataset Type IDs sent out on behalf the End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, must be present no more than once in the Report.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, must be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
-    <t>The Report must contain an enumeration of all Dataset Type IDs received on behalf the End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, must be present no more than once in the Report.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, must be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
-    <t>The Report must contain an enumeration of all Peppol Participant IDs used by an End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Peppol Participant IDs used by an End User in the reporting period, must be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
-    <t>The Report must not not contain timezone information for the reporting period.</t>
-  </si>
-  <si>
-    <t>The scheme for identifying the reporting Service Provider must follow the "Reporter ID Scheme" code list</t>
-  </si>
-  <si>
     <t>XSD only</t>
   </si>
   <si>
-    <t>If the Reporter ID scheme is set to "CertSubjectCN", the Reporter ID must be a valid Peppol seat ID.</t>
-  </si>
-  <si>
-    <t>The Report must contain the total amount of outgoing / sent Peppol Datasets in the reporting period.</t>
-  </si>
-  <si>
-    <t>The Report must contain the total amount of incoming / received Peppol Datasets in the reporting period.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by receiving Service Provider ID, must match the total amount of outgoing / sent Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by sending Service Provider ID, must match the total amount of incoming / received Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Dataset Type ID, must match the total amount of outgoing / sent Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Dataset Type ID, must match the total amount of incoming / received Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The Report must contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Transport Protocol ID, if at least any Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Transport Protocol ID, must match the total amount of outgoing / sent Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Transport Protocol ID, must match the total amount of incoming / received Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>Each Service Provider ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
-    <t>Each Transport Protocol ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
-    <t>The Report must contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Sender Country ID and Receiver Country ID, if at least any Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, must match the total amount of outgoing / sent Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, must match the total amount of incoming / received Peppol Dataset IDs.</t>
-  </si>
-  <si>
-    <t>Each combination of Sender Country ID and Receiver Country ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
     <t>Per Transport Protocol</t>
   </si>
   <si>
-    <t>The Report must contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Service Provider ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report must contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
     <t>BR-TSR-01</t>
   </si>
   <si>
@@ -761,37 +638,223 @@
     <t>Per Country to Country; no longer explicit</t>
   </si>
   <si>
-    <t>The Report must contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by sending Service Provider ID AND Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report must contain the amount of outgoing / sent Peppol Datasets in the reporting period, aggregated by receiving Service Provider ID AND Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report must contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by sending Service Provider ID AND Dataset Type ID AND Sender Country ID AND Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The combination of sending Service Provider ID and Dataset Type ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
-    <t>The combination of receiving Service Provider ID and Dataset Type ID, for which data is aggregated, must not occur more then once.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID AND Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by sending Service Provider ID AND Dataset Type ID, must match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>Per SP; per DT</t>
-  </si>
-  <si>
-    <t>Per SP; per DT; per CC</t>
-  </si>
-  <si>
     <t>Customization ID</t>
   </si>
   <si>
     <t>Process ID</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Reporting Period</t>
+  </si>
+  <si>
+    <t>SP ID</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an identification of the specification it conforms to.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an identification of the business process context it appears in.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the year and the month in which the reported data was gathered.</t>
+  </si>
+  <si>
+    <t>The Report MUST not not contain timezone information for the reporting period.</t>
+  </si>
+  <si>
+    <t>The Report MUST uniquely identify the reporting Service Provider.</t>
+  </si>
+  <si>
+    <t>The scheme for identifying the reporting Service Provider MUST follow the "Reporter ID Scheme" code list</t>
+  </si>
+  <si>
+    <t>If the Reporter ID scheme is set to "CertSubjectCN", the Reporter ID MUST be a valid Peppol Seat ID.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the total amount of outgoing / sent Peppol Datasets in the reporting period.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the total amount of incoming / received Peppol Datasets in the reporting period.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Service Provider ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Transport Protocol ID, if at least any Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Transport Protocol ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Transport Protocol ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>Each Transport Protocol ID, for which data is aggregated, MUST NOT occur more then once.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Sender Country ID and Receiver Country ID, if at least any Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>If the Reporter ID scheme is set to "CertSubjectCN", the Reporter ID MUST be a valid Peppol seat ID.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the details of no, one or multiple End Users.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the legal identifier of every reported End User.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the legal name of every reported End User.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the country code of every reported End User.</t>
+  </si>
+  <si>
+    <t>Each country code reported, MUST be specified following the ISO-3166-1 Alpha2 code list.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Dataset Type IDs sent out on behalf the End User in the reporting period.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, MUST be present no more than once in the Report.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Dataset Type IDs received on behalf the End User in the reporting period.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, MUST be present no more than once in the Report.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Peppol Participant IDs used by an End User in the reporting period.</t>
+  </si>
+  <si>
+    <t>Each Peppol Participant IDs used by an End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the legal identifier of every reported Intermediary of any End User.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the legal name of every reported Intermediary of any End User.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the country code of every reported Intermediary of any End User.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by Sending Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the reporting period, aggregated by Receiving Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID and Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID and Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>Each combination of Sending Service Provider ID and Dataset Type ID, for which data is aggregated, MUST NOT occur more then once.</t>
+  </si>
+  <si>
+    <t>Each combination of Receiving Service Provider ID and Dataset Type ID, for which data is aggregated, MUST NOT occur more then once.</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Per SP and DT</t>
+  </si>
+  <si>
+    <t>Per SP and DT and CC</t>
+  </si>
+  <si>
+    <t>BR-TSR-26</t>
+  </si>
+  <si>
+    <t>BR-TSR-27</t>
+  </si>
+  <si>
+    <t>BR-TSR-28</t>
+  </si>
+  <si>
+    <t>BR-TSR-29</t>
+  </si>
+  <si>
+    <t>BR-TSR-30</t>
+  </si>
+  <si>
+    <t>BR-TSR-31</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the reporting period, aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>Each combination of Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, for which data is aggregated, MUST NOT occur more then once.</t>
+  </si>
+  <si>
+    <t>Each combination of Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, for which data is aggregated, MUST NOT occur more then once.</t>
+  </si>
+  <si>
+    <t>BR-TSR-32</t>
+  </si>
+  <si>
+    <t>BR-TSR-33</t>
+  </si>
+  <si>
+    <t>BR-TSR-34</t>
+  </si>
+  <si>
+    <t>BR-TSR-35</t>
+  </si>
+  <si>
+    <t>BR-TSR-36</t>
+  </si>
+  <si>
+    <t>BR-TSR-37</t>
+  </si>
+  <si>
+    <t>-- Rule was deleted</t>
   </si>
 </sst>
 </file>
@@ -838,7 +901,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +917,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -899,6 +968,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1700,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3969E37-D11D-43C2-8EAA-B7E2EA338EF9}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1799,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,7 +1807,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1815,10 @@
         <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +1834,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1768,7 +1842,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1776,7 +1850,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,10 +1858,10 @@
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,7 +1869,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1803,7 +1877,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1885,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +1893,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1827,7 +1901,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1835,7 +1909,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1843,7 +1917,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1851,7 +1925,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1859,7 +1933,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>176</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1867,7 +1941,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1875,7 +1949,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1883,7 +1957,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>178</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1891,7 +1965,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1899,7 +1973,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1907,7 +1981,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1915,7 +1989,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2588,11 +2662,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB955338-4C1E-487A-8F9C-B3643191810A}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2600,7 +2672,7 @@
     <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2610,324 +2682,430 @@
       <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>222</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>225</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>243</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>244</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>245</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>247</v>
+      </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>248</v>
+      </c>
       <c r="B32" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/rules/Reporting Requirements and Rules.xlsx
+++ b/rules/Reporting Requirements and Rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\reporting\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD53439-F4FC-45EE-B51E-B0413093A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A25D5F-6F8A-4F0F-BA3D-B618D311BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -551,9 +551,6 @@
     <t>XSD only</t>
   </si>
   <si>
-    <t>Per Transport Protocol</t>
-  </si>
-  <si>
     <t>BR-TSR-01</t>
   </si>
   <si>
@@ -629,15 +626,6 @@
     <t>BR-TSR-25</t>
   </si>
   <si>
-    <t>Per SP; no longer explicit</t>
-  </si>
-  <si>
-    <t>Per Dataset Type; no longer explicit</t>
-  </si>
-  <si>
-    <t>Per Country to Country; no longer explicit</t>
-  </si>
-  <si>
     <t>Customization ID</t>
   </si>
   <si>
@@ -791,9 +779,6 @@
     <t>Each combination of Receiving Service Provider ID and Dataset Type ID, for which data is aggregated, MUST NOT occur more then once.</t>
   </si>
   <si>
-    <t>Removed</t>
-  </si>
-  <si>
     <t>Per SP and DT</t>
   </si>
   <si>
@@ -845,16 +830,19 @@
     <t>BR-TSR-34</t>
   </si>
   <si>
-    <t>BR-TSR-35</t>
-  </si>
-  <si>
-    <t>BR-TSR-36</t>
-  </si>
-  <si>
-    <t>BR-TSR-37</t>
-  </si>
-  <si>
-    <t>-- Rule was deleted</t>
+    <t>No explicit SCH rule</t>
+  </si>
+  <si>
+    <t>Per SP</t>
+  </si>
+  <si>
+    <t>Per DT</t>
+  </si>
+  <si>
+    <t>Per TP</t>
+  </si>
+  <si>
+    <t>Per CC</t>
   </si>
 </sst>
 </file>
@@ -901,7 +889,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -917,12 +905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -968,11 +950,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1799,7 +1776,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,7 +1784,7 @@
         <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" t="s">
         <v>159</v>
@@ -1826,7 +1803,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,7 +1811,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1842,7 +1819,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1850,7 +1827,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1858,7 +1835,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -1869,7 +1846,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,7 +1854,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,7 +1862,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1893,7 +1870,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1901,7 +1878,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1909,7 +1886,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1917,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1925,7 +1902,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1933,7 +1910,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1941,7 +1918,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1949,7 +1926,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1957,7 +1934,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1965,7 +1942,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1973,7 +1950,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1981,7 +1958,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1989,7 +1966,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2662,14 +2639,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB955338-4C1E-487A-8F9C-B3643191810A}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="85.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2683,40 +2663,40 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>159</v>
@@ -2724,57 +2704,57 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>159</v>
@@ -2782,13 +2762,13 @@
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>159</v>
@@ -2796,316 +2776,304 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>254</v>
+      </c>
+      <c r="D11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>186</v>
+        <v>254</v>
+      </c>
+      <c r="D12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>175</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>240</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>178</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>179</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>181</v>
-      </c>
       <c r="B22" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>160</v>
+        <v>257</v>
+      </c>
+      <c r="D22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>188</v>
+        <v>257</v>
+      </c>
+      <c r="D23" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>240</v>
+      <c r="B26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>248</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>259</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/rules/Reporting Requirements and Rules.xlsx
+++ b/rules/Reporting Requirements and Rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\reporting\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A25D5F-6F8A-4F0F-BA3D-B618D311BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70DF27-CE9F-46D7-BB61-608B833BD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="20340" activeTab="1" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
   </bookViews>
   <sheets>
     <sheet name="End User Reporting" sheetId="1" r:id="rId1"/>
@@ -653,9 +653,6 @@
     <t>The Report MUST contain the year and the month in which the reported data was gathered.</t>
   </si>
   <si>
-    <t>The Report MUST not not contain timezone information for the reporting period.</t>
-  </si>
-  <si>
     <t>The Report MUST uniquely identify the reporting Service Provider.</t>
   </si>
   <si>
@@ -665,45 +662,9 @@
     <t>If the Reporter ID scheme is set to "CertSubjectCN", the Reporter ID MUST be a valid Peppol Seat ID.</t>
   </si>
   <si>
-    <t>The Report MUST contain the total amount of outgoing / sent Peppol Datasets in the reporting period.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the total amount of incoming / received Peppol Datasets in the reporting period.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Service Provider ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Transport Protocol ID, if at least any Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Transport Protocol ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Transport Protocol ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
     <t>Each Transport Protocol ID, for which data is aggregated, MUST NOT occur more then once.</t>
   </si>
   <si>
-    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the reporting period, aggregated by Sender Country ID and Receiver Country ID, if at least any Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
     <t>If the Reporter ID scheme is set to "CertSubjectCN", the Reporter ID MUST be a valid Peppol seat ID.</t>
   </si>
   <si>
@@ -722,30 +683,6 @@
     <t>Each country code reported, MUST be specified following the ISO-3166-1 Alpha2 code list.</t>
   </si>
   <si>
-    <t>The Report MUST contain an enumeration of all Dataset Type IDs sent out on behalf the End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs sent out on behalf the End User in the reporting period, MUST be present no more than once in the Report.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain an enumeration of all Dataset Type IDs received on behalf the End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
-    <t>Each Dataset Type IDs received on behalf the End User in the reporting period, MUST be present no more than once in the Report.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain an enumeration of all Peppol Participant IDs used by an End User in the reporting period.</t>
-  </si>
-  <si>
-    <t>Each Peppol Participant IDs used by an End User in the reporting period, MUST be reported with identifier scheme and identifier value.</t>
-  </si>
-  <si>
     <t>The Report MUST contain the legal identifier of every reported Intermediary of any End User.</t>
   </si>
   <si>
@@ -755,24 +692,6 @@
     <t>The Report MUST contain the country code of every reported Intermediary of any End User.</t>
   </si>
   <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by Sending Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the reporting period, aggregated by Receiving Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID and Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID and Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
     <t>Each combination of Sending Service Provider ID and Dataset Type ID, for which data is aggregated, MUST NOT occur more then once.</t>
   </si>
   <si>
@@ -803,18 +722,6 @@
     <t>BR-TSR-31</t>
   </si>
   <si>
-    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the reporting period, aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the reporting period, aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of incoming / received Peppol Datasets in the reporting period aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
-  </si>
-  <si>
-    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the reporting period aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
-  </si>
-  <si>
     <t>Each combination of Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, for which data is aggregated, MUST NOT occur more then once.</t>
   </si>
   <si>
@@ -843,6 +750,99 @@
   </si>
   <si>
     <t>Per CC</t>
+  </si>
+  <si>
+    <t>The Report MUST not not contain timezone information for the Reporting Period.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the total amount of outgoing / sent Peppol Datasets in the Reporting Period.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the total amount of incoming / received Peppol Datasets in the Reporting Period.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the Reporting Period, aggregated by Service Provider ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Receiving Service Provider ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Sending Service Provider ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the Reporting Period, aggregated by Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the Reporting Period, aggregated by Transport Protocol ID, if at least any Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Transport Protocol ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Transport Protocol ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent and incoming / received Peppol Datasets in the Reporting Period, aggregated by Sender Country ID and Receiver Country ID, if at least any Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the Reporting Period, aggregated by Sending Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the Reporting Period, aggregated by Receiving Service Provider ID and Dataset Type ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Sending Service Provider ID and Dataset Type ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Receiving Service Provider ID and Dataset Type ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of incoming / received Peppol Datasets in the Reporting Period, aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain the amount of outgoing / sent Peppol Datasets in the Reporting Period, aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, if at least one Peppol Dataset was exchanged.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of incoming / received Peppol Datasets in the Reporting Period aggregated by Sending Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of incoming / received Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The sum of all amounts of outgoing / sent Peppol Datasets in the Reporting Period aggregated by Receiving Service Provider ID and Dataset Type ID and Sender Country ID and Receiver Country ID, MUST match the total amount of outgoing / sent Peppol Datasets.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Dataset Type IDs sent out on behalf the End User in the Reporting Period.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs sent out on behalf the End User in the Reporting Period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs sent out on behalf the End User in the Reporting Period, MUST be present no more than once in the Report.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Dataset Type IDs received on behalf the End User in the Reporting Period.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs received on behalf the End User in the Reporting Period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>Each Dataset Type IDs received on behalf the End User in the Reporting Period, MUST be present no more than once in the Report.</t>
+  </si>
+  <si>
+    <t>The Report MUST contain an enumeration of all Peppol Participant IDs used by an End User in the Reporting Period.</t>
+  </si>
+  <si>
+    <t>Each Peppol Participant IDs used by an End User in the Reporting Period, MUST be reported with identifier scheme and identifier value.</t>
   </si>
 </sst>
 </file>
@@ -1751,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3969E37-D11D-43C2-8EAA-B7E2EA338EF9}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1803,7 @@
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1819,7 +1819,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>159</v>
@@ -1846,7 +1846,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>109</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>110</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>112</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>114</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>224</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2641,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB955338-4C1E-487A-8F9C-B3643191810A}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2707,7 +2707,7 @@
         <v>163</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>188</v>
@@ -2718,7 +2718,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>189</v>
@@ -2729,7 +2729,7 @@
         <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>189</v>
@@ -2740,7 +2740,7 @@
         <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>189</v>
@@ -2751,7 +2751,7 @@
         <v>167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>190</v>
@@ -2765,7 +2765,7 @@
         <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>190</v>
@@ -2779,13 +2779,13 @@
         <v>169</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2793,13 +2793,13 @@
         <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2807,13 +2807,13 @@
         <v>171</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2821,13 +2821,13 @@
         <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2835,13 +2835,13 @@
         <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2849,13 +2849,13 @@
         <v>174</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2863,10 +2863,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -2874,10 +2874,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2885,10 +2885,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2896,10 +2896,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2907,13 +2907,13 @@
         <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2921,13 +2921,13 @@
         <v>180</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2935,13 +2935,13 @@
         <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2949,10 +2949,10 @@
         <v>182</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2960,10 +2960,10 @@
         <v>183</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2971,109 +2971,109 @@
         <v>184</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/rules/Reporting Requirements and Rules.xlsx
+++ b/rules/Reporting Requirements and Rules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\reporting\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yerlibilgin/dev/peppol/reporting/reporting-bis-docs/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F70DF27-CE9F-46D7-BB61-608B833BD665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771BE1E-C958-9E4B-AC8C-DAEFF225B5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="20340" activeTab="1" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="24700" windowHeight="18880" activeTab="1" xr2:uid="{D55973C5-EE73-483F-94E6-D9DE17C4B093}"/>
   </bookViews>
   <sheets>
     <sheet name="End User Reporting" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -843,6 +843,9 @@
   </si>
   <si>
     <t>Each Peppol Participant IDs used by an End User in the Reporting Period, MUST be reported with identifier scheme and identifier value.</t>
+  </si>
+  <si>
+    <t>The Report MUST NOT contain timezone information for the Reporting Period.</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -968,7 +971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1270,15 +1273,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1309,7 +1312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1357,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1371,7 +1374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1399,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -1597,7 +1600,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -1752,15 +1755,15 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="85.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1798,15 +1801,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>113</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -1929,7 +1932,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>117</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -1984,18 +1987,18 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2022,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>95</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -2080,7 +2083,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -2319,7 +2322,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>11</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
@@ -2533,7 +2536,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>3</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>96</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>55</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -2645,14 +2648,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="85.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -2677,7 +2680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>161</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -2724,7 +2727,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>165</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>166</v>
       </c>
@@ -2746,7 +2749,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>167</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -2788,7 +2791,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>172</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>173</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>174</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -2869,7 +2872,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -2891,7 +2894,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>179</v>
       </c>
@@ -2916,7 +2919,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>180</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -2944,7 +2947,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>183</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -3043,7 +3046,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>219</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>220</v>
       </c>
@@ -3065,7 +3068,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>221</v>
       </c>
